--- a/data/Rakic-Au-DL-fundamental.xlsx
+++ b/data/Rakic-Au-DL-fundamental.xlsx
@@ -1860,9 +1860,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AF7605-C56B-46AE-8D78-57D13B8E59FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B90D1D30-0CE3-4660-BD27-3BF5310C520A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6EE552D-A02D-4189-952E-B7A7C55E9B81}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A891C4AB-DEB6-43A3-A4D1-977496610E4D}"/>
 </file>
--- a/data/Rakic-Au-DL-fundamental.xlsx
+++ b/data/Rakic-Au-DL-fundamental.xlsx
@@ -1860,9 +1860,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B90D1D30-0CE3-4660-BD27-3BF5310C520A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D45B68D1-D333-46B0-9217-DD0B6D11E5F7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A891C4AB-DEB6-43A3-A4D1-977496610E4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008E49D7-6345-4EFA-A7AC-BBCC071508F5}"/>
 </file>
--- a/data/Rakic-Au-DL-fundamental.xlsx
+++ b/data/Rakic-Au-DL-fundamental.xlsx
@@ -515,1354 +515,1094 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.050505050505051</v>
+        <v>3.060606060606061</v>
       </c>
       <c r="B3" t="n">
-        <v>1.251287315717505</v>
+        <v>1.259489233140225</v>
       </c>
       <c r="C3" t="n">
-        <v>19.22079298331358</v>
+        <v>19.2838069287597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.101010101010101</v>
+        <v>3.121212121212121</v>
       </c>
       <c r="B4" t="n">
-        <v>1.292556529681086</v>
+        <v>1.30924579940329</v>
       </c>
       <c r="C4" t="n">
-        <v>19.53577867464186</v>
+        <v>19.66171387072027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.151515151515152</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="B5" t="n">
-        <v>1.334473980488766</v>
+        <v>1.359935024139175</v>
       </c>
       <c r="C5" t="n">
-        <v>19.85055290563835</v>
+        <v>20.03931498550969</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.202020202020202</v>
+        <v>3.242424242424243</v>
       </c>
       <c r="B6" t="n">
-        <v>1.377038270722863</v>
+        <v>1.411554475879201</v>
       </c>
       <c r="C6" t="n">
-        <v>20.16511337117131</v>
+        <v>20.4166062660131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.252525252525253</v>
+        <v>3.303030303030303</v>
       </c>
       <c r="B7" t="n">
-        <v>1.420247983621007</v>
+        <v>1.464101683218608</v>
       </c>
       <c r="C7" t="n">
-        <v>20.47945773898125</v>
+        <v>20.79358365291039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.303030303030303</v>
+        <v>3.363636363636364</v>
       </c>
       <c r="B8" t="n">
-        <v>1.464101683218608</v>
+        <v>1.5175741351743</v>
       </c>
       <c r="C8" t="n">
-        <v>20.79358365291039</v>
+        <v>21.17024304222303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.353535353535354</v>
+        <v>3.424242424242424</v>
       </c>
       <c r="B9" t="n">
-        <v>1.508597914493179</v>
+        <v>1.571969281547977</v>
       </c>
       <c r="C9" t="n">
-        <v>21.10748873585202</v>
+        <v>21.54658029209333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.404040404040404</v>
+        <v>3.484848484848485</v>
       </c>
       <c r="B10" t="n">
-        <v>1.553735203510447</v>
+        <v>1.627284533294481</v>
       </c>
       <c r="C10" t="n">
-        <v>21.4211705924486</v>
+        <v>21.92259122888897</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.454545454545455</v>
+        <v>3.545454545454546</v>
       </c>
       <c r="B11" t="n">
-        <v>1.599512057572227</v>
+        <v>1.683517262895169</v>
       </c>
       <c r="C11" t="n">
-        <v>21.73462681156428</v>
+        <v>22.29827165271327</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.505050505050505</v>
+        <v>3.606060606060606</v>
       </c>
       <c r="B12" t="n">
-        <v>1.645926965365971</v>
+        <v>1.740664804736127</v>
       </c>
       <c r="C12" t="n">
-        <v>22.04785496855444</v>
+        <v>22.67361734239068</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.555555555555555</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>1.692978397115965</v>
+        <v>1.798724455491087</v>
       </c>
       <c r="C13" t="n">
-        <v>22.36085262735234</v>
+        <v>23.04862405998749</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.606060606060606</v>
+        <v>3.727272727272728</v>
       </c>
       <c r="B14" t="n">
-        <v>1.740664804736127</v>
+        <v>1.857693474508853</v>
       </c>
       <c r="C14" t="n">
-        <v>22.67361734239068</v>
+        <v>23.4232875549204</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.656565656565657</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="B15" t="n">
-        <v>1.788984621984357</v>
+        <v>1.917569084205121</v>
       </c>
       <c r="C15" t="n">
-        <v>22.98614666037379</v>
+        <v>23.79760356769824</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.707070707070707</v>
+        <v>3.848484848484848</v>
       </c>
       <c r="B16" t="n">
-        <v>1.837936264618384</v>
+        <v>1.978348470458534</v>
       </c>
       <c r="C16" t="n">
-        <v>23.2984381219147</v>
+        <v>24.17156783333699</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.757575757575757</v>
+        <v>3.909090909090909</v>
       </c>
       <c r="B17" t="n">
-        <v>1.887518130553091</v>
+        <v>2.040028783010823</v>
       </c>
       <c r="C17" t="n">
-        <v>23.6104892630494</v>
+        <v>24.54517608448278</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.808080808080808</v>
+        <v>3.96969696969697</v>
       </c>
       <c r="B18" t="n">
-        <v>1.937728600019266</v>
+        <v>2.102607135870902</v>
       </c>
       <c r="C18" t="n">
-        <v>23.92229761663991</v>
+        <v>24.9184240542734</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.858585858585859</v>
+        <v>4.03030303030303</v>
       </c>
       <c r="B19" t="n">
-        <v>1.98856603572373</v>
+        <v>2.166080607722794</v>
       </c>
       <c r="C19" t="n">
-        <v>24.23386071367567</v>
+        <v>25.29130747896554</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.909090909090909</v>
+        <v>4.090909090909092</v>
       </c>
       <c r="B20" t="n">
-        <v>2.040028783010823</v>
+        <v>2.230446242337238</v>
       </c>
       <c r="C20" t="n">
-        <v>24.54517608448278</v>
+        <v>25.66382210035106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.959595959595959</v>
+        <v>4.151515151515151</v>
       </c>
       <c r="B21" t="n">
-        <v>2.092115170025192</v>
+        <v>2.295701048986858</v>
       </c>
       <c r="C21" t="n">
-        <v>24.8562412598488</v>
+        <v>26.03596366798343</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.01010101010101</v>
+        <v>4.212121212121212</v>
       </c>
       <c r="B22" t="n">
-        <v>2.144823507875855</v>
+        <v>2.36184200286477</v>
       </c>
       <c r="C22" t="n">
-        <v>25.16705377207055</v>
+        <v>26.40772794123292</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.060606060606061</v>
+        <v>4.272727272727273</v>
       </c>
       <c r="B23" t="n">
-        <v>2.198152090801497</v>
+        <v>2.428866045506481</v>
       </c>
       <c r="C23" t="n">
-        <v>25.47761115593132</v>
+        <v>26.7791106911866</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.111111111111111</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>2.252099196336972</v>
+        <v>2.49677008521498</v>
       </c>
       <c r="C24" t="n">
-        <v>25.78791094961354</v>
+        <v>27.15010770240804</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.161616161616161</v>
+        <v>4.393939393939394</v>
       </c>
       <c r="B25" t="n">
-        <v>2.306663085480963</v>
+        <v>2.565550997488888</v>
       </c>
       <c r="C25" t="n">
-        <v>26.09795069555205</v>
+        <v>27.52071477456953</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.212121212121212</v>
+        <v>4.454545454545455</v>
       </c>
       <c r="B26" t="n">
-        <v>2.36184200286477</v>
+        <v>2.635205625453533</v>
       </c>
       <c r="C26" t="n">
-        <v>26.40772794123292</v>
+        <v>27.8909277239682</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.262626262626262</v>
+        <v>4.515151515151516</v>
       </c>
       <c r="B27" t="n">
-        <v>2.417634176922191</v>
+        <v>2.705730780294838</v>
       </c>
       <c r="C27" t="n">
-        <v>26.71724023994203</v>
+        <v>28.26074238493656</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.313131313131313</v>
+        <v>4.575757575757576</v>
       </c>
       <c r="B28" t="n">
-        <v>2.474037820060468</v>
+        <v>2.777123241695922</v>
       </c>
       <c r="C28" t="n">
-        <v>27.0264851514675</v>
+        <v>28.63015461115652</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.363636363636364</v>
+        <v>4.636363636363637</v>
       </c>
       <c r="B29" t="n">
-        <v>2.531051128832247</v>
+        <v>2.849379758276235</v>
       </c>
       <c r="C29" t="n">
-        <v>27.33546024275937</v>
+        <v>28.99916027688504</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.414141414141414</v>
+        <v>4.696969696969697</v>
       </c>
       <c r="B30" t="n">
-        <v>2.588672284108534</v>
+        <v>2.92249704803319</v>
       </c>
       <c r="C30" t="n">
-        <v>27.64416308854992</v>
+        <v>29.36775527809903</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.464646464646465</v>
+        <v>4.757575757575758</v>
       </c>
       <c r="B31" t="n">
-        <v>2.646899451252606</v>
+        <v>2.996471798786095</v>
       </c>
       <c r="C31" t="n">
-        <v>27.9525912719375</v>
+        <v>29.7359355335658</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.515151515151515</v>
+        <v>4.818181818181818</v>
       </c>
       <c r="B32" t="n">
-        <v>2.705730780294837</v>
+        <v>3.071300668622318</v>
       </c>
       <c r="C32" t="n">
-        <v>28.26074238493655</v>
+        <v>30.1036969858453</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.565656565656566</v>
+        <v>4.878787878787879</v>
       </c>
       <c r="B33" t="n">
-        <v>2.765164406108429</v>
+        <v>3.146980286345543</v>
       </c>
       <c r="C33" t="n">
-        <v>28.56861402899635</v>
+        <v>30.47103560222934</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.616161616161616</v>
+        <v>4.939393939393939</v>
       </c>
       <c r="B34" t="n">
-        <v>2.825198448585968</v>
+        <v>3.223507251926019</v>
       </c>
       <c r="C34" t="n">
-        <v>28.87620381549052</v>
+        <v>30.83794737562265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.666666666666666</v>
+        <v>5</v>
       </c>
       <c r="B35" t="n">
-        <v>2.885831012816844</v>
+        <v>3.300878136952669</v>
       </c>
       <c r="C35" t="n">
-        <v>29.1835093661796</v>
+        <v>31.20442832537025</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.717171717171717</v>
+        <v>5.060606060606061</v>
       </c>
       <c r="B36" t="n">
-        <v>2.947060189265415</v>
+        <v>3.379089485086942</v>
       </c>
       <c r="C36" t="n">
-        <v>29.49052831364834</v>
+        <v>31.5704744980349</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.767676767676767</v>
+        <v>5.121212121212121</v>
       </c>
       <c r="B37" t="n">
-        <v>3.008884053949955</v>
+        <v>3.458137812518319</v>
       </c>
       <c r="C37" t="n">
-        <v>29.7972583017194</v>
+        <v>31.93608196812831</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4.818181818181818</v>
+        <v>5.181818181818182</v>
       </c>
       <c r="B38" t="n">
-        <v>3.071300668622318</v>
+        <v>3.538019608421331</v>
       </c>
       <c r="C38" t="n">
-        <v>30.1036969858453</v>
+        <v>32.30124683879952</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.868686868686869</v>
+        <v>5.242424242424243</v>
       </c>
       <c r="B39" t="n">
-        <v>3.134308080948287</v>
+        <v>3.618731335413974</v>
       </c>
       <c r="C39" t="n">
-        <v>30.40984203347968</v>
+        <v>32.66596524248288</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.919191919191919</v>
+        <v>5.303030303030303</v>
       </c>
       <c r="B40" t="n">
-        <v>3.197904324688584</v>
+        <v>3.700269430017449</v>
       </c>
       <c r="C40" t="n">
-        <v>30.7156911244294</v>
+        <v>33.03023334150897</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.96969696969697</v>
+        <v>5.363636363636363</v>
       </c>
       <c r="B41" t="n">
-        <v>3.262087419880511</v>
+        <v>3.782630303117055</v>
       </c>
       <c r="C41" t="n">
-        <v>31.0212419511887</v>
+        <v>33.39404732868039</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.02020202020202</v>
+        <v>5.424242424242425</v>
       </c>
       <c r="B42" t="n">
-        <v>3.326855373020163</v>
+        <v>3.865810340424173</v>
       </c>
       <c r="C42" t="n">
-        <v>31.32649221925638</v>
+        <v>33.75740342781482</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.070707070707071</v>
+        <v>5.484848484848485</v>
       </c>
       <c r="B43" t="n">
-        <v>3.392206177245234</v>
+        <v>3.949805902939199</v>
       </c>
       <c r="C43" t="n">
-        <v>31.6314396474372</v>
+        <v>34.12029789425741</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.121212121212121</v>
+        <v>5.545454545454546</v>
       </c>
       <c r="B44" t="n">
-        <v>3.458137812518319</v>
+        <v>4.03461332741534</v>
       </c>
       <c r="C44" t="n">
-        <v>31.93608196812831</v>
+        <v>34.48272701536431</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.171717171717171</v>
+        <v>5.606060606060606</v>
       </c>
       <c r="B45" t="n">
-        <v>3.52464824581074</v>
+        <v>4.120228926823147</v>
       </c>
       <c r="C45" t="n">
-        <v>32.24041692759162</v>
+        <v>34.84468711095904</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.222222222222221</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>3.591735431286819</v>
+        <v>4.206648990815676</v>
       </c>
       <c r="C46" t="n">
-        <v>32.54444228621297</v>
+        <v>35.2061745337632</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.272727272727272</v>
+        <v>5.727272727272728</v>
       </c>
       <c r="B47" t="n">
-        <v>3.659397310488593</v>
+        <v>4.293869786194181</v>
       </c>
       <c r="C47" t="n">
-        <v>32.84815581874863</v>
+        <v>35.56718566980299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.323232323232324</v>
+        <v>5.787878787878788</v>
       </c>
       <c r="B48" t="n">
-        <v>3.72763181252093</v>
+        <v>4.381887557374219</v>
       </c>
       <c r="C48" t="n">
-        <v>33.15155531456022</v>
+        <v>35.9277169387929</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.373737373737374</v>
+        <v>5.848484848484849</v>
       </c>
       <c r="B49" t="n">
-        <v>3.796436854237012</v>
+        <v>4.470698526852085</v>
       </c>
       <c r="C49" t="n">
-        <v>33.45463857783819</v>
+        <v>36.28776479449769</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.424242424242425</v>
+        <v>5.909090909090909</v>
       </c>
       <c r="B50" t="n">
-        <v>3.865810340424173</v>
+        <v>4.560298895671433</v>
       </c>
       <c r="C50" t="n">
-        <v>33.75740342781482</v>
+        <v>36.64732572507373</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.474747474747475</v>
+        <v>5.96969696969697</v>
       </c>
       <c r="B51" t="n">
-        <v>3.935750163990025</v>
+        <v>4.650684843890018</v>
       </c>
       <c r="C51" t="n">
-        <v>34.05984769896715</v>
+        <v>37.00639625339085</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.525252525252525</v>
+        <v>6.030303030303031</v>
       </c>
       <c r="B52" t="n">
-        <v>4.006254206148882</v>
+        <v>4.741852531046427</v>
       </c>
       <c r="C52" t="n">
-        <v>34.36196924121024</v>
+        <v>37.36497293733554</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.575757575757575</v>
+        <v>6.090909090909091</v>
       </c>
       <c r="B53" t="n">
-        <v>4.077320336608421</v>
+        <v>4.833798096626713</v>
       </c>
       <c r="C53" t="n">
-        <v>34.66376592008152</v>
+        <v>37.72305237009644</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.626262626262625</v>
+        <v>6.151515151515151</v>
       </c>
       <c r="B54" t="n">
-        <v>4.148946413756565</v>
+        <v>4.926517660530842</v>
       </c>
       <c r="C54" t="n">
-        <v>34.96523561691628</v>
+        <v>38.0806311804328</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.676767676767676</v>
+        <v>6.212121212121213</v>
       </c>
       <c r="B55" t="n">
-        <v>4.221130284848557</v>
+        <v>5.020007323538803</v>
       </c>
       <c r="C55" t="n">
-        <v>35.26637622901504</v>
+        <v>38.43770603292682</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.727272727272727</v>
+        <v>6.272727272727272</v>
       </c>
       <c r="B56" t="n">
-        <v>4.293869786194179</v>
+        <v>5.114263167776346</v>
       </c>
       <c r="C56" t="n">
-        <v>35.56718566980298</v>
+        <v>38.7942736282204</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.777777777777778</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>4.367162743345126</v>
+        <v>5.209281257180217</v>
       </c>
       <c r="C57" t="n">
-        <v>35.86766186898195</v>
+        <v>39.15033070323719</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.828282828282828</v>
+        <v>6.393939393939394</v>
       </c>
       <c r="B58" t="n">
-        <v>4.441006971282447</v>
+        <v>5.305057637962785</v>
       </c>
       <c r="C58" t="n">
-        <v>36.16780277267506</v>
+        <v>39.50587403139014</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.878787878787879</v>
+        <v>6.454545454545455</v>
       </c>
       <c r="B59" t="n">
-        <v>4.515400274604077</v>
+        <v>5.401588339075984</v>
       </c>
       <c r="C59" t="n">
-        <v>36.46760634356468</v>
+        <v>39.86090042277553</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.929292929292929</v>
+        <v>6.515151515151516</v>
       </c>
       <c r="B60" t="n">
-        <v>4.590340447712404</v>
+        <v>5.498869372674461</v>
       </c>
       <c r="C60" t="n">
-        <v>36.76707056102354</v>
+        <v>40.21540672435371</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.979797979797979</v>
+        <v>6.575757575757576</v>
       </c>
       <c r="B61" t="n">
-        <v>4.665825275001849</v>
+        <v>5.596896734577857</v>
       </c>
       <c r="C61" t="n">
-        <v>37.06619342123975</v>
+        <v>40.56938982011722</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6.03030303030303</v>
+        <v>6.636363636363637</v>
       </c>
       <c r="B62" t="n">
-        <v>4.741852531046423</v>
+        <v>5.695666404732114</v>
       </c>
       <c r="C62" t="n">
-        <v>37.36497293733554</v>
+        <v>40.92284663124654</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6.08080808080808</v>
+        <v>6.696969696969697</v>
       </c>
       <c r="B63" t="n">
-        <v>4.818419980787249</v>
+        <v>5.795174347669708</v>
       </c>
       <c r="C63" t="n">
-        <v>37.66340713948023</v>
+        <v>41.27577411625418</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6.131313131313131</v>
+        <v>6.757575757575758</v>
       </c>
       <c r="B64" t="n">
-        <v>4.895525379719997</v>
+        <v>5.895416512968725</v>
       </c>
       <c r="C64" t="n">
-        <v>37.9614940749976</v>
+        <v>41.62816927111717</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6.181818181818182</v>
+        <v>6.818181818181818</v>
       </c>
       <c r="B65" t="n">
-        <v>4.973166474082229</v>
+        <v>5.996388835710729</v>
       </c>
       <c r="C65" t="n">
-        <v>38.2592318084678</v>
+        <v>41.98002912939869</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6.232323232323232</v>
+        <v>6.878787878787879</v>
       </c>
       <c r="B66" t="n">
-        <v>5.051341001040615</v>
+        <v>6.098087236937257</v>
       </c>
       <c r="C66" t="n">
-        <v>38.556618421824</v>
+        <v>42.3313507623588</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.282828282828282</v>
+        <v>6.93939393939394</v>
       </c>
       <c r="B67" t="n">
-        <v>5.130046688877989</v>
+        <v>6.20050762410492</v>
       </c>
       <c r="C67" t="n">
-        <v>38.85365201444403</v>
+        <v>42.68213127905505</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6.333333333333332</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>5.209281257180217</v>
+        <v>6.303645891539031</v>
       </c>
       <c r="C68" t="n">
-        <v>39.15033070323719</v>
+        <v>43.03236782643288</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.383838383838384</v>
+        <v>7.060606060606061</v>
       </c>
       <c r="B69" t="n">
-        <v>5.289042417022858</v>
+        <v>6.407497920885596</v>
       </c>
       <c r="C69" t="n">
-        <v>39.44665262272622</v>
+        <v>43.38205758940628</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.434343434343434</v>
+        <v>7.121212121212121</v>
       </c>
       <c r="B70" t="n">
-        <v>5.369327871157592</v>
+        <v>6.512059581561676</v>
       </c>
       <c r="C70" t="n">
-        <v>39.74261592512484</v>
+        <v>43.73119779092909</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.484848484848485</v>
+        <v>7.181818181818183</v>
       </c>
       <c r="B71" t="n">
-        <v>5.450135314198392</v>
+        <v>6.617326731204011</v>
       </c>
       <c r="C71" t="n">
-        <v>40.03821878041082</v>
+        <v>44.07978569205705</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.535353535353535</v>
+        <v>7.242424242424242</v>
       </c>
       <c r="B72" t="n">
-        <v>5.531462432807369</v>
+        <v>6.723295216115792</v>
       </c>
       <c r="C72" t="n">
-        <v>40.33345937639471</v>
+        <v>44.42781859200085</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6.585858585858586</v>
+        <v>7.303030303030303</v>
       </c>
       <c r="B73" t="n">
-        <v>5.613306905880359</v>
+        <v>6.829960871711552</v>
       </c>
       <c r="C73" t="n">
-        <v>40.62833591878458</v>
+        <v>44.77529382817063</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.636363636363636</v>
+        <v>7.363636363636364</v>
       </c>
       <c r="B74" t="n">
-        <v>5.695666404732114</v>
+        <v>6.937319522960069</v>
       </c>
       <c r="C74" t="n">
-        <v>40.92284663124654</v>
+        <v>45.12220877621191</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.686868686868686</v>
+        <v>7.424242424242425</v>
       </c>
       <c r="B75" t="n">
-        <v>5.778538593281168</v>
+        <v>7.045366984825226</v>
       </c>
       <c r="C75" t="n">
-        <v>41.2169897554615</v>
+        <v>45.46856085003325</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6.737373737373737</v>
+        <v>7.484848484848485</v>
       </c>
       <c r="B76" t="n">
-        <v>5.861921128234298</v>
+        <v>7.15409906270472</v>
       </c>
       <c r="C76" t="n">
-        <v>41.51076355117806</v>
+        <v>45.81434750182596</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6.787878787878787</v>
+        <v>7.545454545454546</v>
       </c>
       <c r="B77" t="n">
-        <v>5.945811659270534</v>
+        <v>7.263511552866606</v>
       </c>
       <c r="C77" t="n">
-        <v>41.80416629626161</v>
+        <v>46.15956622207598</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>6.838383838383837</v>
+        <v>7.606060606060606</v>
       </c>
       <c r="B78" t="n">
-        <v>6.030207829224814</v>
+        <v>7.373600242883554</v>
       </c>
       <c r="C78" t="n">
-        <v>42.0971962867401</v>
+        <v>46.50421453956804</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6.888888888888888</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="B79" t="n">
-        <v>6.115107274271072</v>
+        <v>7.484360912064751</v>
       </c>
       <c r="C79" t="n">
-        <v>42.38985183684601</v>
+        <v>46.84829002138246</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6.939393939393939</v>
+        <v>7.727272727272728</v>
       </c>
       <c r="B80" t="n">
-        <v>6.20050762410492</v>
+        <v>7.595789331885423</v>
       </c>
       <c r="C80" t="n">
-        <v>42.68213127905505</v>
+        <v>47.19179027288461</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>6.98989898989899</v>
+        <v>7.787878787878789</v>
       </c>
       <c r="B81" t="n">
-        <v>6.286406502125777</v>
+        <v>7.707881266413874</v>
       </c>
       <c r="C81" t="n">
-        <v>42.97403296412156</v>
+        <v>47.53471293770735</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.04040404040404</v>
+        <v>7.848484848484849</v>
       </c>
       <c r="B82" t="n">
-        <v>6.372801525618474</v>
+        <v>7.82063247273598</v>
       </c>
       <c r="C82" t="n">
-        <v>43.26555526111056</v>
+        <v>47.87705569772639</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.090909090909091</v>
+        <v>7.909090909090909</v>
       </c>
       <c r="B83" t="n">
-        <v>6.459690305934291</v>
+        <v>7.934038701377085</v>
       </c>
       <c r="C83" t="n">
-        <v>43.5566965574267</v>
+        <v>48.21881627302913</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.141414141414141</v>
+        <v>7.969696969696971</v>
       </c>
       <c r="B84" t="n">
-        <v>6.547070448671448</v>
+        <v>8.048095696721253</v>
       </c>
       <c r="C84" t="n">
-        <v>43.84745525884014</v>
+        <v>48.55999242187666</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.191919191919191</v>
+        <v>8.030303030303031</v>
       </c>
       <c r="B85" t="n">
-        <v>6.634939553854935</v>
+        <v>8.16279919742775</v>
       </c>
       <c r="C85" t="n">
-        <v>44.13782978950931</v>
+        <v>48.90058194065931</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7.242424242424242</v>
+        <v>8.09090909090909</v>
       </c>
       <c r="B86" t="n">
-        <v>6.723295216115792</v>
+        <v>8.278144936844797</v>
       </c>
       <c r="C86" t="n">
-        <v>44.42781859200085</v>
+        <v>49.24058266384611</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>7.292929292929292</v>
+        <v>8.151515151515152</v>
       </c>
       <c r="B87" t="n">
-        <v>6.81213502486967</v>
+        <v>8.394128643420446</v>
       </c>
       <c r="C87" t="n">
-        <v>44.71742012730653</v>
+        <v>49.57999246392779</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7.343434343434343</v>
+        <v>8.212121212121213</v>
       </c>
       <c r="B88" t="n">
-        <v>6.901456564494781</v>
+        <v>8.510746041110558</v>
       </c>
       <c r="C88" t="n">
-        <v>45.00663287485748</v>
+        <v>49.91880925135388</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7.393939393939393</v>
+        <v>8.272727272727272</v>
       </c>
       <c r="B89" t="n">
-        <v>6.991257414509126</v>
+        <v>8.627992849783885</v>
       </c>
       <c r="C89" t="n">
-        <v>45.29545533253553</v>
+        <v>50.25703097446402</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>7.444444444444445</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>7.081535149747044</v>
+        <v>8.745864785624057</v>
       </c>
       <c r="C90" t="n">
-        <v>45.58388601668197</v>
+        <v>50.59465561941322</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>7.494949494949495</v>
+        <v>8.393939393939396</v>
       </c>
       <c r="B91" t="n">
-        <v>7.172287340534986</v>
+        <v>8.8643575615286</v>
       </c>
       <c r="C91" t="n">
-        <v>45.87192346210354</v>
+        <v>50.93168121009179</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7.545454545454545</v>
+        <v>8.454545454545455</v>
       </c>
       <c r="B92" t="n">
-        <v>7.263511552866603</v>
+        <v>8.983466887504777</v>
       </c>
       <c r="C92" t="n">
-        <v>46.15956622207597</v>
+        <v>51.26810580803948</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>7.595959595959596</v>
+        <v>8.515151515151516</v>
       </c>
       <c r="B93" t="n">
-        <v>7.355205348577019</v>
+        <v>9.103188471062351</v>
       </c>
       <c r="C93" t="n">
-        <v>46.44681286834485</v>
+        <v>51.60392751235447</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>7.646464646464646</v>
+        <v>8.575757575757576</v>
       </c>
       <c r="B94" t="n">
-        <v>7.44736628551632</v>
+        <v>9.22351801760308</v>
       </c>
       <c r="C94" t="n">
-        <v>46.73366199112415</v>
+        <v>51.93914445959692</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>7.696969696969696</v>
+        <v>8.636363636363637</v>
       </c>
       <c r="B95" t="n">
-        <v>7.539991917722266</v>
+        <v>9.344451230806989</v>
       </c>
       <c r="C95" t="n">
-        <v>47.02011219909214</v>
+        <v>52.27375482368738</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>7.747474747474747</v>
+        <v>8.696969696969697</v>
       </c>
       <c r="B96" t="n">
-        <v>7.633079795592165</v>
+        <v>9.465983813015368</v>
       </c>
       <c r="C96" t="n">
-        <v>47.30616211938512</v>
+        <v>52.60775681580031</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>7.797979797979797</v>
+        <v>8.757575757575758</v>
       </c>
       <c r="B97" t="n">
-        <v>7.72662746605387</v>
+        <v>9.588111465610426</v>
       </c>
       <c r="C97" t="n">
-        <v>47.5918103975886</v>
+        <v>52.94114868425246</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>7.848484848484847</v>
+        <v>8.818181818181818</v>
       </c>
       <c r="B98" t="n">
-        <v>7.820632472735974</v>
+        <v>9.710829889391537</v>
       </c>
       <c r="C98" t="n">
-        <v>47.87705569772638</v>
+        <v>53.27392871438656</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>7.898989898989897</v>
+        <v>8.878787878787879</v>
       </c>
       <c r="B99" t="n">
-        <v>7.915092356137087</v>
+        <v>9.834134784948146</v>
       </c>
       <c r="C99" t="n">
-        <v>48.16189670224727</v>
+        <v>53.60609522845032</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>7.949494949494949</v>
+        <v>8.939393939393939</v>
       </c>
       <c r="B100" t="n">
-        <v>8.01000465379423</v>
+        <v>9.95802185302913</v>
       </c>
       <c r="C100" t="n">
-        <v>48.44633211200959</v>
+        <v>53.93764658547075</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B101" t="n">
-        <v>8.105366900450299</v>
+        <v>10.08248679490877</v>
       </c>
       <c r="C101" t="n">
-        <v>48.73036064626361</v>
+        <v>54.26858118112406</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E316A4CF7CE7C14DAB64B46427C15C80" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="33fa667ddec67a8d016068fe07c36fd2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="baefc347-5ba3-4b33-a24e-4e757a4ca6a9" xmlns:ns3="82356154-5183-4f37-90d3-f4f98cf6a93f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b5850af10db67bb7751f2a675230962" ns2:_="" ns3:_="">
-    <xsd:import namespace="baefc347-5ba3-4b33-a24e-4e757a4ca6a9"/>
-    <xsd:import namespace="82356154-5183-4f37-90d3-f4f98cf6a93f"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="baefc347-5ba3-4b33-a24e-4e757a4ca6a9" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d264a842-8adc-43f3-ad4e-91e5e271ce18" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="82356154-5183-4f37-90d3-f4f98cf6a93f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6e04b54a-541a-489d-8fc0-1aee5e1529a0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="82356154-5183-4f37-90d3-f4f98cf6a93f">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D45B68D1-D333-46B0-9217-DD0B6D11E5F7}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008E49D7-6345-4EFA-A7AC-BBCC071508F5}"/>
 </file>
--- a/data/Rakic-Au-DL-fundamental.xlsx
+++ b/data/Rakic-Au-DL-fundamental.xlsx
@@ -1605,4 +1605,264 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E316A4CF7CE7C14DAB64B46427C15C80" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="33fa667ddec67a8d016068fe07c36fd2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="baefc347-5ba3-4b33-a24e-4e757a4ca6a9" xmlns:ns3="82356154-5183-4f37-90d3-f4f98cf6a93f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b5850af10db67bb7751f2a675230962" ns2:_="" ns3:_="">
+    <xsd:import namespace="baefc347-5ba3-4b33-a24e-4e757a4ca6a9"/>
+    <xsd:import namespace="82356154-5183-4f37-90d3-f4f98cf6a93f"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="baefc347-5ba3-4b33-a24e-4e757a4ca6a9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d264a842-8adc-43f3-ad4e-91e5e271ce18" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="82356154-5183-4f37-90d3-f4f98cf6a93f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6e04b54a-541a-489d-8fc0-1aee5e1529a0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="82356154-5183-4f37-90d3-f4f98cf6a93f">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E207A48D-1E08-440E-9DAD-47861C77F199}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B3EBBD-B3E4-47B0-944C-3F09441C17F1}"/>
 </file>